--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3165.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3165.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.699113571503774</v>
+        <v>0.9817641377449036</v>
       </c>
       <c r="B1">
-        <v>1.806446697195081</v>
+        <v>2.201106071472168</v>
       </c>
       <c r="C1">
-        <v>1.969808112270929</v>
+        <v>5.091033458709717</v>
       </c>
       <c r="D1">
-        <v>2.859587987803443</v>
+        <v>1.843563079833984</v>
       </c>
       <c r="E1">
-        <v>6.096294723458421</v>
+        <v>1.300118803977966</v>
       </c>
     </row>
   </sheetData>
